--- a/medicine/Handicap/Syndrome_de_Pfeiffer/Syndrome_de_Pfeiffer.xlsx
+++ b/medicine/Handicap/Syndrome_de_Pfeiffer/Syndrome_de_Pfeiffer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome de Pfeiffer est une craniosynostose en rapport avec une mutation du gène FGFR (fibroblast growth factor receptor). Cette mutation du gène FGFR est responsable d'autres craniosynostoses regroupées sous le nom de craniosynostoses FGFR dépendantes.  Les sutures du crâne qui fusionnent dans cette maladie sont les sutures coronales et parfois sagittales.  Le syndrome de Pfeiffer comprend différents types en fonction du type du gène FGFR.
 </t>
@@ -511,7 +523,9 @@
           <t>Autres noms de la maladie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Acrocéphalosyndactylie type V
 Syndrome de Noack
@@ -543,9 +557,11 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Certaines études suggèrent que l'âge paternel augmenterait le risque de cette pathologie[1],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Certaines études suggèrent que l'âge paternel augmenterait le risque de cette pathologie,.
 Le syndrome de Pfeiffer (nl) résulte de deux mutations possibles :
 mutation du gène FGFR1 ou fibroblast growth factor receptor-1 localisé sur le locus 8p11.2-p11.1 du chromosome 8 ;
 mutation du gène FGFR2 ou fibroblast growth factor receptor-2 localisé sur le locus q26 du chromosome 10.
@@ -579,7 +595,9 @@
           <t>Incidence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">1 sur 100 000 naissances.
 </t>
@@ -610,13 +628,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le médecin allemand Rudolf Pfeiffer (nl) reprend et publie en 1964 la description clinique d'une famille, où le syndrome d'Apert avait été diagnostiqué de façon erronée : il est l'éponyme du nouveau syndrome qu'il décrit[3].
-Syndrome de Pfeiffer type I
-Le plus courant. Les enfants conservent une intelligence normale, la face est assez caractéristique. Le pouce et le gros orteil sont larges et déviés. Les doigts sont plus ou moins courts. Parfois il existe une perte d’audition.
-Syndrome de Pfeiffer type II et type III
-Retard mental fréquent. Déformation très importante du crâne avec protrusion des yeux importante pouvant empêcher la fermeture des paupières. Les atteintes des mains et des pieds sont pareilles au type I.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le médecin allemand Rudolf Pfeiffer (nl) reprend et publie en 1964 la description clinique d'une famille, où le syndrome d'Apert avait été diagnostiqué de façon erronée : il est l'éponyme du nouveau syndrome qu'il décrit.
 </t>
         </is>
       </c>
@@ -642,16 +658,18 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Diagnostic</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le diagnostic est essentiellement clinique :
-Anténatal
-Dans les familles à risque, une recherche de la mutation est possible par prélèvement de trophoblaste ou par amniocentèse. La découverte fortuite (en cas de mutation de novo) par échographie est possible.
-Différentiel
-Le diagnostic différentiel est celui d’une craniosynostose.
+          <t>Syndrome de Pfeiffer type I</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le plus courant. Les enfants conservent une intelligence normale, la face est assez caractéristique. Le pouce et le gros orteil sont larges et déviés. Les doigts sont plus ou moins courts. Parfois il existe une perte d’audition.
 </t>
         </is>
       </c>
@@ -677,12 +695,18 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Mode de transmission</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Transmission autosomique dominante
+          <t>Syndrome de Pfeiffer type II et type III</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Retard mental fréquent. Déformation très importante du crâne avec protrusion des yeux importante pouvant empêcher la fermeture des paupières. Les atteintes des mains et des pieds sont pareilles au type I.
 </t>
         </is>
       </c>
@@ -708,10 +732,152 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le diagnostic est essentiellement clinique :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Pfeiffer</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Pfeiffer</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Anténatal</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les familles à risque, une recherche de la mutation est possible par prélèvement de trophoblaste ou par amniocentèse. La découverte fortuite (en cas de mutation de novo) par échographie est possible.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Pfeiffer</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Pfeiffer</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Différentiel</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le diagnostic différentiel est celui d’une craniosynostose.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Pfeiffer</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Pfeiffer</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Mode de transmission</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Transmission autosomique dominante
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Pfeiffer</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Pfeiffer</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Conseil génétique</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">Une enquête familiale est indispensable.
 </t>
